--- a/students_data.xlsx
+++ b/students_data.xlsx
@@ -1,40 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\SUAI_PROJECTS\SUAI-projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github.com\MADTeacher\missed-students-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BFAF602-B413-49B9-94E3-EF7BCE41730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B650326-F188-40EC-9F1A-F54CDDCE6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3990" windowWidth="21600" windowHeight="11460" xr2:uid="{E6F45A01-916A-4116-8189-1EB46ABFFEF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93283103-F43E-447A-A613-CDEB5170BC45}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="УК-2971|ИТиП" sheetId="2" r:id="rId1"/>
+    <sheet name="ТВ-2981|ВвПАД" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Зубачева Мария Александровна</t>
+  </si>
+  <si>
+    <t>Басакова Марфа Ивановна</t>
+  </si>
+  <si>
+    <t>Щукина Марфа Петровна</t>
+  </si>
+  <si>
+    <t>Зеленко Марфа Витальевна</t>
+  </si>
+  <si>
+    <t>Семичева Марфа Вадимовна</t>
+  </si>
+  <si>
+    <t>Дементьева Марфа Юрьевна</t>
+  </si>
+  <si>
+    <t>Плотникова Марфа Владимировна</t>
+  </si>
+  <si>
+    <t>Ендржеевская Марфа Владиславовна</t>
+  </si>
+  <si>
+    <t>Силантьева Марфа Андреевна</t>
+  </si>
+  <si>
+    <t>Лазарева Марфа Николаевна</t>
+  </si>
+  <si>
+    <t>Андреев Иван Евгеньевич</t>
+  </si>
+  <si>
+    <t>Собиров Иван Абдурахмонович</t>
+  </si>
+  <si>
+    <t>Афанасьев Иван Игоревич</t>
+  </si>
+  <si>
+    <t>Леонтьев Иван Павлович</t>
+  </si>
+  <si>
+    <t>Косарев Петр Максимович</t>
+  </si>
   <si>
     <t>Арзяев Петр Иванович</t>
   </si>
@@ -42,6 +79,24 @@
     <t>Байков Петр Дмитриевич</t>
   </si>
   <si>
+    <t>Мороз Петр Эдуардович</t>
+  </si>
+  <si>
+    <t>Обухов Петр Сергеевич</t>
+  </si>
+  <si>
+    <t>Поповцев Петр Олегович</t>
+  </si>
+  <si>
+    <t>Холомеев Петр Николаевич</t>
+  </si>
+  <si>
+    <t>Цориев Петр Асланбекович</t>
+  </si>
+  <si>
+    <t>Юльцманн Петр Карлович</t>
+  </si>
+  <si>
     <t>Дятчина Мария Дмитриевна</t>
   </si>
   <si>
@@ -49,27 +104,6 @@
   </si>
   <si>
     <t>Касимова Мария Ринадовна</t>
-  </si>
-  <si>
-    <t>Косарев Петр Максимович</t>
-  </si>
-  <si>
-    <t>Мороз Петр Эдуардович</t>
-  </si>
-  <si>
-    <t>Обухов Петр Сергеевич</t>
-  </si>
-  <si>
-    <t>Поповцев Петр Олегович</t>
-  </si>
-  <si>
-    <t>Холомеев Петр Николаевич</t>
-  </si>
-  <si>
-    <t>Цориев Петр Асланбекович</t>
-  </si>
-  <si>
-    <t>Юльцманн Петр Карлович</t>
   </si>
 </sst>
 </file>
@@ -106,8 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -421,26 +458,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DB45D0-40FF-4256-8715-E3DC22E32F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFBA49D-5F50-4C68-92D3-7B4A8F354567}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E64EF3-E3D3-438B-8E8E-997FCC25EE83}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -450,50 +566,61 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/students_data.xlsx
+++ b/students_data.xlsx
@@ -1,40 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\github.com\MADTeacher\missed-students-bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\SUAI_PROJECTS\SUAI-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B650326-F188-40EC-9F1A-F54CDDCE6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A1CF4-4196-4043-952D-109F71DEC190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93283103-F43E-447A-A613-CDEB5170BC45}"/>
+    <workbookView xWindow="6585" yWindow="2895" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="УК-2971|ИТиП" sheetId="2" r:id="rId1"/>
-    <sheet name="ТВ-2981|ВвПАД" sheetId="3" r:id="rId2"/>
+    <sheet name="4316|ОПД" sheetId="1" r:id="rId1"/>
+    <sheet name="4317|АЛГ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Арзяев Петр Иванович</t>
+  </si>
+  <si>
+    <t>Байков Петр Дмитриевич</t>
+  </si>
+  <si>
+    <t>Дятчина Мария Дмитриевна</t>
+  </si>
+  <si>
+    <t>Епанчинцева Мария Владимировна</t>
+  </si>
+  <si>
+    <t>Касимова Мария Ринадовна</t>
+  </si>
+  <si>
+    <t>Косарев Петр Максимович</t>
+  </si>
+  <si>
+    <t>Мороз Петр Эдуардович</t>
+  </si>
+  <si>
+    <t>Обухов Петр Сергеевич</t>
+  </si>
+  <si>
+    <t>Поповцев Петр Олегович</t>
+  </si>
+  <si>
+    <t>Холомеев Петр Николаевич</t>
+  </si>
+  <si>
+    <t>Цориев Петр Асланбекович</t>
+  </si>
+  <si>
+    <t>Юльцманн Петр Карлович</t>
+  </si>
+  <si>
+    <t>Басакова Марфа Ивановна</t>
+  </si>
+  <si>
+    <t>Андреев Иван Евгеньевич</t>
+  </si>
+  <si>
+    <t>Щукина Марфа Петровна</t>
+  </si>
   <si>
     <t>Зубачева Мария Александровна</t>
   </si>
   <si>
-    <t>Басакова Марфа Ивановна</t>
-  </si>
-  <si>
-    <t>Щукина Марфа Петровна</t>
+    <t>Собиров Иван Абдурахмонович</t>
   </si>
   <si>
     <t>Зеленко Марфа Витальевна</t>
@@ -46,6 +83,9 @@
     <t>Дементьева Марфа Юрьевна</t>
   </si>
   <si>
+    <t>Афанасьев Иван Игоревич</t>
+  </si>
+  <si>
     <t>Плотникова Марфа Владимировна</t>
   </si>
   <si>
@@ -55,55 +95,13 @@
     <t>Силантьева Марфа Андреевна</t>
   </si>
   <si>
+    <t>Леонтьев Иван Павлович</t>
+  </si>
+  <si>
     <t>Лазарева Марфа Николаевна</t>
   </si>
   <si>
-    <t>Андреев Иван Евгеньевич</t>
-  </si>
-  <si>
-    <t>Собиров Иван Абдурахмонович</t>
-  </si>
-  <si>
-    <t>Афанасьев Иван Игоревич</t>
-  </si>
-  <si>
-    <t>Леонтьев Иван Павлович</t>
-  </si>
-  <si>
-    <t>Косарев Петр Максимович</t>
-  </si>
-  <si>
-    <t>Арзяев Петр Иванович</t>
-  </si>
-  <si>
-    <t>Байков Петр Дмитриевич</t>
-  </si>
-  <si>
-    <t>Мороз Петр Эдуардович</t>
-  </si>
-  <si>
-    <t>Обухов Петр Сергеевич</t>
-  </si>
-  <si>
-    <t>Поповцев Петр Олегович</t>
-  </si>
-  <si>
-    <t>Холомеев Петр Николаевич</t>
-  </si>
-  <si>
-    <t>Цориев Петр Асланбекович</t>
-  </si>
-  <si>
-    <t>Юльцманн Петр Карлович</t>
-  </si>
-  <si>
-    <t>Дятчина Мария Дмитриевна</t>
-  </si>
-  <si>
-    <t>Епанчинцева Мария Владимировна</t>
-  </si>
-  <si>
-    <t>Касимова Мария Ринадовна</t>
+    <t>Рябов Даниил Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -458,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFBA49D-5F50-4C68-92D3-7B4A8F354567}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,76 +470,81 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E64EF3-E3D3-438B-8E8E-997FCC25EE83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,76 +554,76 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>